--- a/conception/base de données/Dictionnaire de données.xlsx
+++ b/conception/base de données/Dictionnaire de données.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FORMATION\PROJET TP\base de données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet Dev\PROJET-TP\conception\base de données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241ABD3E-1D02-4720-BC5B-2FB15BEAE716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CD98F-4168-4C7B-8CCD-62FA17694BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2115" windowWidth="22605" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Users_roles" sheetId="2" r:id="rId2"/>
+    <sheet name="Usersroles" sheetId="2" r:id="rId2"/>
     <sheet name="Categories" sheetId="3" r:id="rId3"/>
     <sheet name="Items" sheetId="4" r:id="rId4"/>
     <sheet name="Reservations" sheetId="5" r:id="rId5"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
   <si>
     <t>HuBX02_users</t>
   </si>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>HuBX02_comments</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>code postal de l'utilisateur</t>
+  </si>
+  <si>
+    <t>code postal de l'utilisateur qui ne doit pas dépasser 10 caractères et doit être uniquement en chiffres</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>ville  de l'utilisateur qui ne doit pas dépasser 50 caractères et doit être uniquement en lettres et chiffres</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,63 +1144,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>255</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1191,7 +1249,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1203,7 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1323,7 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1509,7 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1693,7 +1757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1885,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2085,7 +2151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/conception/base de données/Dictionnaire de données.xlsx
+++ b/conception/base de données/Dictionnaire de données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet Dev\PROJET-TP\conception\base de données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CD98F-4168-4C7B-8CCD-62FA17694BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23845F3-B840-4569-8153-7E874B7F569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2115" windowWidth="22605" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2565" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="94">
   <si>
     <t>HuBX02_users</t>
   </si>
@@ -225,15 +225,6 @@
     </r>
   </si>
   <si>
-    <t>briefDescription</t>
-  </si>
-  <si>
-    <t>en bref</t>
-  </si>
-  <si>
-    <t>reprend les informations les  plus importante (  capacité, age mini, accès, service…)</t>
-  </si>
-  <si>
     <t>HuBX02_reservations</t>
   </si>
   <si>
@@ -268,15 +259,6 @@
   </si>
   <si>
     <t>choix du nombre de personne (2 pour duo, 3 à 6 pour les famille)</t>
-  </si>
-  <si>
-    <t>daysNumber</t>
-  </si>
-  <si>
-    <t>nombre de jour/semaine</t>
-  </si>
-  <si>
-    <t>choix du nombre de jour ( 1 ou 2 pour  un week-end) ou à la semaine</t>
   </si>
   <si>
     <t>lunch</t>
@@ -603,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -641,6 +623,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -664,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -688,6 +698,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1146,13 +1168,13 @@
     </row>
     <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -1161,15 +1183,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1181,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1572,7 +1594,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,86 +1677,78 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>255</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>255</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -1755,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1789,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1821,49 +1835,49 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1872,70 +1886,50 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1968,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2014,10 +2008,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -2029,7 +2023,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2047,7 +2041,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -2065,15 +2059,15 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -2083,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,7 +2162,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2214,10 +2208,10 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -2229,7 +2223,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,7 +2231,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2249,7 +2243,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,7 +2251,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -2267,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
